--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3969.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3969.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3969</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Glenn James Maxwell</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Off Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3437</t>
+          <t>3437</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3439</t>
+          <t>3439</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3441</t>
+          <t>3441</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3443</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -712,7 +777,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3458</t>
+          <t>3458</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -764,7 +829,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3460</t>
+          <t>3460</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -816,7 +881,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3467</t>
+          <t>3467</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -868,7 +933,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3471</t>
+          <t>3471</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -920,7 +985,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3472</t>
+          <t>3472</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -972,7 +1037,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3473</t>
+          <t>3473</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1024,7 +1089,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3474</t>
+          <t>3474</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1076,7 +1141,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3511</t>
+          <t>3511</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1128,7 +1193,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3516</t>
+          <t>3516</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1180,7 +1245,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3562</t>
+          <t>3562</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1232,7 +1297,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3563</t>
+          <t>3563</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1284,7 +1349,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3564</t>
+          <t>3564</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1336,7 +1401,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3565</t>
+          <t>3565</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1388,7 +1453,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3568</t>
+          <t>3568</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1440,7 +1505,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3572</t>
+          <t>3572</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1492,7 +1557,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3599</t>
+          <t>3599</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1544,7 +1609,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3600</t>
+          <t>3600</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1584,7 +1649,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>19/01/2014</t>
@@ -1592,7 +1656,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3602</t>
+          <t>3602</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1644,7 +1708,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3606</t>
+          <t>3606</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1696,7 +1760,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3608</t>
+          <t>3608</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1748,7 +1812,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3659</t>
+          <t>3659</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1800,7 +1864,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3663</t>
+          <t>3663</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1852,7 +1916,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3668</t>
+          <t>3668</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1904,7 +1968,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3669</t>
+          <t>3669</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1956,7 +2020,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3673</t>
+          <t>3673</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2008,7 +2072,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3677</t>
+          <t>3677</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2060,7 +2124,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3679</t>
+          <t>3679</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2112,7 +2176,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3681</t>
+          <t>3681</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2164,7 +2228,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3694</t>
+          <t>3694</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2216,7 +2280,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3695</t>
+          <t>3695</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2268,7 +2332,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3698</t>
+          <t>3698</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2320,7 +2384,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3700</t>
+          <t>3700</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2372,7 +2436,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3727</t>
+          <t>3727</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2424,7 +2488,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3731</t>
+          <t>3731</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2476,7 +2540,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3738</t>
+          <t>3738</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2516,7 +2580,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>26/01/2015</t>
@@ -2524,7 +2587,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3741</t>
+          <t>3741</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2576,7 +2639,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3746</t>
+          <t>3746</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2628,7 +2691,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3749</t>
+          <t>3749</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2680,7 +2743,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3767</t>
+          <t>3767</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2732,7 +2795,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3773</t>
+          <t>3773</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2784,7 +2847,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3779</t>
+          <t>3779</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2824,7 +2887,6 @@
           <t>46</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>14/03/2015</t>
@@ -2832,7 +2894,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3787</t>
+          <t>3787</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2884,7 +2946,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3792</t>
+          <t>3792</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2936,7 +2998,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3795</t>
+          <t>3795</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2976,7 +3038,6 @@
           <t>49</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>29/03/2015</t>
@@ -2984,7 +3045,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3796</t>
+          <t>3796</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3036,7 +3097,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3829</t>
+          <t>3829</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3088,7 +3149,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3830</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3140,7 +3201,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3831</t>
+          <t>3831</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3192,7 +3253,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3832</t>
+          <t>3832</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3244,7 +3305,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3833</t>
+          <t>3833</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3284,7 +3345,6 @@
           <t>55</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>12/09/2015</t>
@@ -3292,7 +3352,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3834</t>
+          <t>3834</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3344,7 +3404,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3874</t>
+          <t>3874</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3396,7 +3456,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3875</t>
+          <t>3875</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3448,7 +3508,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3876</t>
+          <t>3876</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3500,7 +3560,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3877</t>
+          <t>3877</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3552,7 +3612,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3884</t>
+          <t>3884</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3604,7 +3664,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3886</t>
+          <t>3886</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3656,7 +3716,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3888</t>
+          <t>3888</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3708,7 +3768,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3893</t>
+          <t>3893</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3760,7 +3820,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3894</t>
+          <t>3894</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3800,7 +3860,6 @@
           <t>65</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
           <t>19/06/2016</t>
@@ -3808,7 +3867,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3903</t>
+          <t>3903</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3860,7 +3919,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3905</t>
+          <t>3905</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3912,7 +3971,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3909</t>
+          <t>3909</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3964,7 +4023,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3972</t>
+          <t>3972</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4016,7 +4075,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3973</t>
+          <t>3973</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4056,7 +4115,6 @@
           <t>70</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>19/01/2017</t>
@@ -4064,7 +4122,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3975</t>
+          <t>3975</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4116,7 +4174,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3977</t>
+          <t>3977</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4168,7 +4226,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3981</t>
+          <t>3981</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4220,7 +4278,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3984</t>
+          <t>3984</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4272,7 +4330,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3988</t>
+          <t>3988</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4312,7 +4370,6 @@
           <t>75</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
           <t>02/06/2017</t>
@@ -4320,7 +4377,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4032</t>
+          <t>4032</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4360,7 +4417,6 @@
           <t>76</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
           <t>05/06/2017</t>
@@ -4368,7 +4424,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4035</t>
+          <t>4035</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4420,7 +4476,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4041</t>
+          <t>4041</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4472,7 +4528,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4067</t>
+          <t>4067</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4524,7 +4580,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4069</t>
+          <t>4069</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4576,7 +4632,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4071</t>
+          <t>4071</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4628,7 +4684,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4125</t>
+          <t>4125</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4680,7 +4736,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4166</t>
+          <t>4166</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4732,7 +4788,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4167</t>
+          <t>4167</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4784,7 +4840,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4168</t>
+          <t>4168</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4836,7 +4892,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4222</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4888,7 +4944,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4224</t>
+          <t>4224</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4940,7 +4996,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4226</t>
+          <t>4226</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4992,7 +5048,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4234</t>
+          <t>4234</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5044,7 +5100,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4235</t>
+          <t>4235</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5096,7 +5152,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4236</t>
+          <t>4236</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5148,7 +5204,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4258</t>
+          <t>4258</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5200,7 +5256,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4263</t>
+          <t>4263</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5252,7 +5308,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4266</t>
+          <t>4266</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5304,7 +5360,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4268</t>
+          <t>4268</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5356,7 +5412,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4270</t>
+          <t>4270</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5396,7 +5452,6 @@
           <t>96</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr">
         <is>
           <t>22/03/2019</t>
@@ -5404,7 +5459,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4273</t>
+          <t>4273</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5456,7 +5511,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4274</t>
+          <t>4274</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5508,7 +5563,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4275</t>
+          <t>4275</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5560,7 +5615,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4276</t>
+          <t>4276</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5612,7 +5667,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4277</t>
+          <t>4277</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5664,7 +5719,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4306</t>
+          <t>4306</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5716,7 +5771,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4312</t>
+          <t>4312</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5768,7 +5823,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4316</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5820,7 +5875,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4319</t>
+          <t>4319</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5872,7 +5927,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4322</t>
+          <t>4322</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5924,7 +5979,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4329</t>
+          <t>4329</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5976,7 +6031,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4336</t>
+          <t>4336</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -6028,7 +6083,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4341</t>
+          <t>4341</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6080,7 +6135,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4351</t>
+          <t>4351</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6132,7 +6187,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4354</t>
+          <t>4354</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6184,7 +6239,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4429</t>
+          <t>4429</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6236,7 +6291,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4430</t>
+          <t>4430</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6288,7 +6343,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4431</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6340,7 +6395,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4435</t>
+          <t>4435</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6392,7 +6447,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4436</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6444,7 +6499,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4437</t>
+          <t>4437</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6496,7 +6551,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4594</t>
+          <t>4594</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6548,7 +6603,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4597</t>
+          <t>4597</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6600,7 +6655,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4600</t>
+          <t>4600</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6652,7 +6707,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4601</t>
+          <t>4601</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6704,7 +6759,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4603</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6756,7 +6811,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4644</t>
+          <t>4644</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6796,7 +6851,6 @@
           <t>123</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr">
         <is>
           <t>31/08/2022</t>
@@ -6804,7 +6858,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4645</t>
+          <t>4645</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6856,7 +6910,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4646</t>
+          <t>4646</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6908,7 +6962,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4647</t>
+          <t>4647</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6960,7 +7014,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4648</t>
+          <t>4648</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -7012,7 +7066,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4649</t>
+          <t>4649</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -7064,7 +7118,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4725</t>
+          <t>4725</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -7103,7 +7157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7125,7 +7179,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -7162,7 +7216,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3437</t>
+          <t>3437</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -7199,7 +7253,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3439</t>
+          <t>3439</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -7236,7 +7290,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3441</t>
+          <t>3441</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -7273,7 +7327,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3443</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -7310,7 +7364,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3458</t>
+          <t>3458</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -7347,7 +7401,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3460</t>
+          <t>3460</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -7384,7 +7438,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3467</t>
+          <t>3467</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -7421,7 +7475,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3472</t>
+          <t>3472</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -7458,7 +7512,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3473</t>
+          <t>3473</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -7495,7 +7549,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3474</t>
+          <t>3474</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -7532,7 +7586,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3516</t>
+          <t>3516</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -7569,7 +7623,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3563</t>
+          <t>3563</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -7606,7 +7660,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3564</t>
+          <t>3564</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -7643,7 +7697,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3568</t>
+          <t>3568</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -7680,7 +7734,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3572</t>
+          <t>3572</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -7717,7 +7771,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3599</t>
+          <t>3599</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -7754,7 +7808,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3600</t>
+          <t>3600</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -7791,7 +7845,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3602</t>
+          <t>3602</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -7828,7 +7882,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3606</t>
+          <t>3606</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -7865,7 +7919,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3608</t>
+          <t>3608</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -7902,7 +7956,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3663</t>
+          <t>3663</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -7939,7 +7993,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3668</t>
+          <t>3668</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -7976,7 +8030,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3669</t>
+          <t>3669</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -8013,7 +8067,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3673</t>
+          <t>3673</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -8050,7 +8104,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3677</t>
+          <t>3677</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -8087,7 +8141,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3679</t>
+          <t>3679</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -8124,7 +8178,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3681</t>
+          <t>3681</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -8161,7 +8215,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3694</t>
+          <t>3694</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -8198,7 +8252,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3695</t>
+          <t>3695</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -8235,7 +8289,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3698</t>
+          <t>3698</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -8272,7 +8326,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3700</t>
+          <t>3700</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -8309,7 +8363,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3727</t>
+          <t>3727</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -8346,7 +8400,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3731</t>
+          <t>3731</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -8383,7 +8437,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3738</t>
+          <t>3738</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -8420,7 +8474,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3746</t>
+          <t>3746</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -8457,7 +8511,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3749</t>
+          <t>3749</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -8494,7 +8548,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3767</t>
+          <t>3767</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -8531,7 +8585,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3773</t>
+          <t>3773</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -8568,7 +8622,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3779</t>
+          <t>3779</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -8605,7 +8659,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3787</t>
+          <t>3787</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -8642,7 +8696,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3792</t>
+          <t>3792</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -8679,7 +8733,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3795</t>
+          <t>3795</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -8716,7 +8770,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3796</t>
+          <t>3796</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -8753,7 +8807,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3829</t>
+          <t>3829</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -8790,7 +8844,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3830</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -8827,7 +8881,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3831</t>
+          <t>3831</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -8864,7 +8918,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3832</t>
+          <t>3832</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -8901,7 +8955,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3833</t>
+          <t>3833</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -8938,7 +8992,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3874</t>
+          <t>3874</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -8975,7 +9029,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3875</t>
+          <t>3875</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -9012,7 +9066,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3876</t>
+          <t>3876</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -9049,7 +9103,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3877</t>
+          <t>3877</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -9086,7 +9140,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3884</t>
+          <t>3884</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -9123,7 +9177,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3886</t>
+          <t>3886</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -9160,7 +9214,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3888</t>
+          <t>3888</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -9197,7 +9251,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3893</t>
+          <t>3893</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -9234,7 +9288,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3894</t>
+          <t>3894</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -9271,7 +9325,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3905</t>
+          <t>3905</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -9308,7 +9362,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4035</t>
+          <t>4035</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -9345,7 +9399,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4041</t>
+          <t>4041</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -9382,7 +9436,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4071</t>
+          <t>4071</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -9419,7 +9473,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4125</t>
+          <t>4125</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -9456,7 +9510,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4166</t>
+          <t>4166</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -9493,7 +9547,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4168</t>
+          <t>4168</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -9530,7 +9584,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4224</t>
+          <t>4224</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -9567,7 +9621,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4226</t>
+          <t>4226</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -9604,7 +9658,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4234</t>
+          <t>4234</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -9641,7 +9695,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4235</t>
+          <t>4235</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -9678,7 +9732,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4236</t>
+          <t>4236</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -9715,7 +9769,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4263</t>
+          <t>4263</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -9752,7 +9806,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4266</t>
+          <t>4266</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -9789,7 +9843,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4268</t>
+          <t>4268</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -9826,7 +9880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4270</t>
+          <t>4270</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -9863,7 +9917,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4273</t>
+          <t>4273</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -9900,7 +9954,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4274</t>
+          <t>4274</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -9937,7 +9991,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4275</t>
+          <t>4275</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -9974,7 +10028,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4276</t>
+          <t>4276</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -10011,7 +10065,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4277</t>
+          <t>4277</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -10048,7 +10102,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4312</t>
+          <t>4312</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -10085,7 +10139,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4316</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -10122,7 +10176,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4319</t>
+          <t>4319</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -10159,7 +10213,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4322</t>
+          <t>4322</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -10196,7 +10250,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4329</t>
+          <t>4329</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -10233,7 +10287,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4336</t>
+          <t>4336</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -10270,7 +10324,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4341</t>
+          <t>4341</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -10307,7 +10361,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4351</t>
+          <t>4351</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -10344,7 +10398,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4429</t>
+          <t>4429</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -10381,7 +10435,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4431</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -10418,7 +10472,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4435</t>
+          <t>4435</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -10455,7 +10509,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4436</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -10492,7 +10546,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4437</t>
+          <t>4437</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -10529,7 +10583,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4594</t>
+          <t>4594</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -10566,7 +10620,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4597</t>
+          <t>4597</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -10603,7 +10657,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4600</t>
+          <t>4600</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -10640,7 +10694,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4601</t>
+          <t>4601</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -10677,7 +10731,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4603</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -10714,7 +10768,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4644</t>
+          <t>4644</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -10751,7 +10805,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4647</t>
+          <t>4647</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -10788,7 +10842,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4648</t>
+          <t>4648</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -10825,7 +10879,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4649</t>
+          <t>4649</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -10862,7 +10916,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4725</t>
+          <t>4725</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -10888,6 +10942,575 @@
       <c r="G102" t="inlineStr">
         <is>
           <t>0/7</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4351</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3.81%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4354</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>9.87%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4429</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>26.19%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4430</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.48%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4431</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>35.41%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4435</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4436</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4437</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.42%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4594</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4597</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>15.87%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4600</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4601</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.39%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4603</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>9.76%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4644</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>15.92%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4645</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4646</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>13.48%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4647</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4648</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>12.82%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4649</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>5.24%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>4.26%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3969.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3969.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11152,10 +11153,6 @@
           <t>4435</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11168,10 +11165,6 @@
           <t>4436</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11214,199 +11207,526 @@
           <t>4594</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4597</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>15.87%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4600</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4601</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.39%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4603</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>9.76%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4644</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>15.92%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4645</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4646</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>13.48%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4647</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4648</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>12.82%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4649</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>5.24%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>4.26%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4322</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4329</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4336</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4341</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4351</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4429</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4431</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4435</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4436</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4597</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
+          <t>4437</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>15.87%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4600</t>
+          <t>4594</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4601</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7</v>
+          <t>4597</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.39%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4603</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>7</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>9.76%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4600</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4644</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>7</v>
+          <t>4601</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>15.92%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4645</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>7</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4603</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4646</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>7</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
+          <t>4644</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>13.48%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11416,13 +11736,6 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11430,29 +11743,12 @@
           <t>4648</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>7</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>12.82%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -11460,29 +11756,12 @@
           <t>4649</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>6</v>
-      </c>
-      <c r="C20" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>5.24%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11490,29 +11769,12 @@
           <t>4725</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>7</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>4.26%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3969.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3969.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2593,7 +2592,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3873,7 +3872,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -11153,6 +11152,10 @@
           <t>4435</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11165,6 +11168,10 @@
           <t>4436</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11207,6 +11214,10 @@
           <t>4594</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11249,6 +11260,10 @@
           <t>4600</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11354,6 +11369,9 @@
       <c r="B16" t="n">
         <v>7</v>
       </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11396,6 +11414,10 @@
           <t>4647</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11491,290 +11513,6 @@
           <t>NO</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4322</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4329</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4336</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4341</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4351</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4429</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4431</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4435</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4436</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4437</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4594</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4597</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4601</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4603</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4644</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4647</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4648</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4649</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4725</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3969.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3969.xlsx
@@ -10956,7 +10956,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10999,27 +10999,13 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4351</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>3.81%</t>
-        </is>
-      </c>
+          <t>3437</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11029,7 +11015,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4354</t>
+          <t>3439</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -11047,7 +11033,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9.87%</t>
+          <t>19.10%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -11059,7 +11045,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4429</t>
+          <t>3441</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -11067,17 +11053,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>26.19%</t>
+          <t>11.29%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -11089,7 +11075,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4430</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -11097,17 +11083,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.48%</t>
+          <t>22.40%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -11119,43 +11105,57 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4431</t>
+          <t>3458</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>35.41%</t>
+          <t>1.64%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4435</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+          <t>3460</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>4.71%</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11165,13 +11165,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4436</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+          <t>3467</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>3.64%</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11181,25 +11195,25 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4437</t>
+          <t>3471</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>20.42%</t>
+          <t>71.83%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -11211,12 +11225,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4594</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+          <t>3472</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
@@ -11227,15 +11251,15 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4597</t>
+          <t>3473</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -11245,7 +11269,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>15.87%</t>
+          <t>1.22%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -11257,13 +11281,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+          <t>3474</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.45%</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11273,27 +11311,13 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4601</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.39%</t>
-        </is>
-      </c>
+          <t>3511</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11303,27 +11327,13 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4603</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>7</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>9.76%</t>
-        </is>
-      </c>
+          <t>3516</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11333,27 +11343,13 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4644</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>7</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>15.92%</t>
-        </is>
-      </c>
+          <t>3562</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11363,15 +11359,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4645</t>
+          <t>3563</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>14.76%</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11381,15 +11389,15 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4646</t>
+          <t>3564</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -11399,7 +11407,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>13.48%</t>
+          <t>0.99%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -11411,7 +11419,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4647</t>
+          <t>3565</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -11427,27 +11435,13 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4648</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>7</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>12.82%</t>
-        </is>
-      </c>
+          <t>3568</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11457,7 +11451,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4649</t>
+          <t>3572</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -11465,17 +11459,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.24%</t>
+          <t>18.40%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -11487,28 +11481,2678 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>3599</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3600</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3602</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>6</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3606</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3608</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>6</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>10.14%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3659</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>5</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>26.57%</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3663</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>5</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2.14%</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3668</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>5</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>6.22%</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3669</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>4</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0.71%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3673</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3677</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3679</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>5</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>35.02%</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3681</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>5</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>8.66%</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>3694</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>3695</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>8</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>3698</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>3700</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>3727</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>6</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>3731</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>3738</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>3741</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>3746</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>3749</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>6</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>19.30%</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>3767</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>6</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0.66%</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>3773</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>4</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>21.10%</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>3779</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>5</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>27.13%</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>3787</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>7</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>3792</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>3795</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>4</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>7.01%</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>3796</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>6</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>3829</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>5</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0.90%</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>3830</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>5</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>4.92%</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>3831</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>5</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>15.86%</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>3832</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>3833</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>5</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>28.43%</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>3834</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>5</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>3874</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>5</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1.94%</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>3875</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>3876</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>5</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>32.43%</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>3877</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>3884</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>3886</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>5</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2.12%</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>3888</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>5</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>3893</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>3894</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>5</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2.11%</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>3903</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>3905</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>3909</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>6</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1.48%</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>3972</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>6</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>22.39%</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>3973</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>3975</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>6</v>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>3977</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>5</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>22.10%</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>3981</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>4</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>3.52%</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>3984</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>5</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>7.14%</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>3988</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>5</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>4032</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>5</v>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>4035</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>5</v>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>4041</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>4067</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>5</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>28.47%</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>4069</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>5</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>6.93%</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>4071</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>4</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1.71%</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>4125</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>6</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>13.77%</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>4166</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>6</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>28.97%</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>4167</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>4168</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>6</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>7.95%</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>4222</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>4224</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>6</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>6.49%</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>4226</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>7</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>12.50%</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>4234</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>7</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>3.82%</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>4235</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>4236</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>7</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>11.30%</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>4258</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>4263</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>5</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>1.65%</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>4266</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>3</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>15.02%</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>4268</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>5</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>6.41%</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>4270</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>4</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>0.37%</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>4273</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>6</v>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>4274</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>3</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>6.67%</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>4275</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>6</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>26.69%</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>4276</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>4277</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>4</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>21.41%</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>4306</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>5</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>1.91%</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>4312</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>5</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>5</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>8.86%</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>4319</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>4</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>6.51%</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>4322</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>5</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>13.77%</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>4329</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>4336</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>5</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>4.21%</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>4341</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>6</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>0.41%</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>4351</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>6</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>3.81%</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>4354</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>7</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>9.87%</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>4429</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>7</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>26.19%</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>4430</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>7</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>0.48%</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>4431</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>7</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>35.41%</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>4435</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>4436</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>4437</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>7</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>20.42%</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>4594</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>4597</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>7</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>15.87%</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>4600</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>4601</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>7</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>0.39%</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>4603</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>7</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>9.76%</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>4644</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>7</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>15.92%</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>4645</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>7</v>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>4646</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>7</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>13.48%</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>4647</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>4648</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>7</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>12.82%</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>4649</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>6</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>5.24%</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
           <t>4725</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B129" t="n">
         <v>7</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D129" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>4.26%</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
